--- a/Coronavirus/Assets/Resources/Localization/Event.xlsx
+++ b/Coronavirus/Assets/Resources/Localization/Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21857\Documents\GitHub\Coronavirus\Coronavirus\Assets\Resources\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94F9C81-744D-4740-A68C-8F4AA6D64E40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D039C37-26FD-456C-A515-ACF1C4EB4146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1368" yWindow="696" windowWidth="17280" windowHeight="8964" xr2:uid="{DF13FCAB-37BE-4E83-96B1-B99BB6A45838}"/>
   </bookViews>

--- a/Coronavirus/Assets/Resources/Localization/Event.xlsx
+++ b/Coronavirus/Assets/Resources/Localization/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21857\Documents\GitHub\Coronavirus\Coronavirus\Assets\Resources\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D039C37-26FD-456C-A515-ACF1C4EB4146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF6975B-624C-4895-ADE2-AA3BDFA03846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1368" yWindow="696" windowWidth="17280" windowHeight="8964" xr2:uid="{DF13FCAB-37BE-4E83-96B1-B99BB6A45838}"/>
+    <workbookView xWindow="36" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{DF13FCAB-37BE-4E83-96B1-B99BB6A45838}"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleChinese" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Example</t>
   </si>
@@ -76,6 +76,22 @@
   </si>
   <si>
     <t xml:space="preserve">NewYear_Describe </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Test4_Describe </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要事件的内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F00B5B0-480F-4BC4-A46D-DF295D24C870}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -496,6 +512,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Coronavirus/Assets/Resources/Localization/Event.xlsx
+++ b/Coronavirus/Assets/Resources/Localization/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21857\Documents\GitHub\Coronavirus\Coronavirus\Assets\Resources\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF6975B-624C-4895-ADE2-AA3BDFA03846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA8B545-9240-4377-A029-B700DEAC7558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{DF13FCAB-37BE-4E83-96B1-B99BB6A45838}"/>
+    <workbookView xWindow="11940" yWindow="2268" windowWidth="11004" windowHeight="8964" xr2:uid="{DF13FCAB-37BE-4E83-96B1-B99BB6A45838}"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleChinese" sheetId="1" r:id="rId1"/>
@@ -31,67 +31,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>事件范例</t>
+  </si>
+  <si>
+    <t>事件内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Example_Describe </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Example</t>
-  </si>
-  <si>
-    <t>事件范例</t>
-  </si>
-  <si>
-    <t>事件内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewYear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年将至</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12月到了，一些城市已经下起了雪，种种迹象都表明，新年要到了。在外上班上学的人逐渐收拾行李准备回家，其他人也要购置年货。在武汉，一些人选择在当地的华南海鲜市场里，购买一些野味，这或许有不一样的滋味。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试事件2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Test2_Describe </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试事件2的内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Example_Describe </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NewYear_Describe </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Test4_Describe </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要事件的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeTreatment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FreeTreatment_Describe </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费医疗开始推行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疫情期间，新冠肺炎患者（包括确诊和疑似）发生的医疗费用，在基本医保、大病保险、医疗救助等按规定支付后，个人负担部分由财政给予补助，实行免费医疗救治。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildHospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BuildHospital_Describe </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“雷神”与“火神”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了以最快的速度最大限度地解决病房短缺等问题，今起新建医院的计划开始实施，雷神山与火神山齐头并进，与时间赛跑。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,76 +441,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F00B5B0-480F-4BC4-A46D-DF295D24C870}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
